--- a/data/management/Management_information_RHH_2019.xlsx
+++ b/data/management/Management_information_RHH_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Downloads/New_Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B7C139-536B-8F43-80EE-982CF11EA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566AAD1-B0CB-8249-B6E4-0102330670BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,9 +256,6 @@
     <t>(kg/ha)</t>
   </si>
   <si>
-    <t>AHL</t>
-  </si>
-  <si>
     <t>CCC</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>Ascra</t>
+  </si>
+  <si>
+    <t>UAN</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
@@ -518,14 +518,11 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -838,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81:I82"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1206,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>14</v>
@@ -1218,10 +1215,10 @@
         <v>43395</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>59</v>
@@ -1242,7 +1239,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>15</v>
@@ -1251,10 +1248,10 @@
         <v>43600</v>
       </c>
       <c r="H45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -1373,10 +1370,10 @@
         <v>43552</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -1399,17 +1396,10 @@
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
@@ -1448,7 +1438,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>9</v>
@@ -1460,7 +1450,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>14</v>
@@ -1469,10 +1459,10 @@
         <v>43395</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>59</v>
@@ -1481,7 +1471,7 @@
     </row>
     <row r="56" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>10</v>
@@ -1493,7 +1483,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>15</v>
@@ -1502,10 +1492,10 @@
         <v>43600</v>
       </c>
       <c r="H56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>60</v>
@@ -1514,7 +1504,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
@@ -1535,7 +1525,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>12</v>
@@ -1556,7 +1546,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1569,10 +1559,10 @@
         <v>43608</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>63</v>
@@ -1581,7 +1571,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1594,10 +1584,10 @@
         <v>43616</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>64</v>
@@ -1606,7 +1596,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1623,7 +1613,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1636,17 +1626,17 @@
         <v>43552</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1710,7 +1700,7 @@
         <v>50</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>14</v>
@@ -1719,10 +1709,10 @@
         <v>43395</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>59</v>
@@ -1743,7 +1733,7 @@
         <v>75</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>15</v>
@@ -1752,10 +1742,10 @@
         <v>43600</v>
       </c>
       <c r="H67" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>60</v>
@@ -1776,7 +1766,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>16</v>
@@ -1880,10 +1870,10 @@
         <v>43552</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -1954,7 +1944,7 @@
         <v>50</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>14</v>
@@ -1963,10 +1953,10 @@
         <v>43395</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>59</v>
@@ -1987,7 +1977,7 @@
         <v>75</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>15</v>
@@ -1996,10 +1986,10 @@
         <v>43600</v>
       </c>
       <c r="H78" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>60</v>
@@ -2020,7 +2010,7 @@
         <v>60</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>16</v>
@@ -2069,10 +2059,10 @@
         <v>43608</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>63</v>
@@ -2094,10 +2084,10 @@
         <v>43616</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>64</v>
@@ -2136,10 +2126,10 @@
         <v>43552</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
@@ -2162,138 +2152,138 @@
       <c r="K85" s="7"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="A88" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
